--- a/src/main/resources/design/数据库设计.xlsx
+++ b/src/main/resources/design/数据库设计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jian\project_\web\training\BBS\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jian\project_\web\training\BBS\src\main\resources\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63C3F16D-F4E2-4CBE-9C77-F62CDE651DF8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F829C4D3-F4F3-40B1-97B4-4797500196D4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{DD8C21C2-1CDA-4EA2-8C5B-5E330347A5E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,73 @@
   </si>
   <si>
     <t>该楼层用户最后一次查看时帖子有多少楼层,或者有多少楼中楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attetion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史帖子纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏的帖子id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男,女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分号分隔,最多30,初始化时,需要判断是否有效</t>
+  </si>
+  <si>
+    <t>分号分隔,最多30,初始化时,需要判断是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attetionnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,10 +408,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,26 +727,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9381FF-640C-41BD-864D-F55F897E7348}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -753,287 +820,365 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B37" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D31:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/design/数据库设计.xlsx
+++ b/src/main/resources/design/数据库设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jian\project_\web\training\BBS\src\main\resources\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F829C4D3-F4F3-40B1-97B4-4797500196D4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFE4BF86-CD97-410F-A146-7A73855EABB9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{DD8C21C2-1CDA-4EA2-8C5B-5E330347A5E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,11 +266,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0=贴子主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastfloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该楼层用户最后一次查看时帖子有多少楼层,或者有多少楼中楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attetion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0=贴子主题</t>
+    <t>历史帖子纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏的帖子id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男,女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分号分隔,最多30,初始化时,需要判断是否有效</t>
+  </si>
+  <si>
+    <t>分号分隔,最多30,初始化时,需要判断是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attetionnum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,73 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lastfloor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该楼层用户最后一次查看时帖子有多少楼层,或者有多少楼中楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collections</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attetion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史帖子纪录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注的用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏的帖子id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男,女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分号分隔,最多30,初始化时,需要判断是否有效</t>
-  </si>
-  <si>
-    <t>分号分隔,最多30,初始化时,需要判断是否有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attetionnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关注数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +350,13 @@
   </si>
   <si>
     <t>views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9381FF-640C-41BD-864D-F55F897E7348}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,16 +823,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -890,55 +893,55 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1060,13 +1063,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1113,7 +1116,7 @@
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1134,10 +1137,10 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1161,13 +1164,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2"/>
     </row>

--- a/src/main/resources/design/数据库设计.xlsx
+++ b/src/main/resources/design/数据库设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jian\project_\web\training\BBS\src\main\resources\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFE4BF86-CD97-410F-A146-7A73855EABB9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F504F588-300C-4365-8AF8-9D975AC5DAF4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{DD8C21C2-1CDA-4EA2-8C5B-5E330347A5E2}"/>
   </bookViews>
@@ -333,10 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attetionnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +353,10 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9381FF-640C-41BD-864D-F55F897E7348}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,13 +893,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -921,7 +921,7 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -935,7 +935,7 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>63</v>
